--- a/xlsx/_wiki_阿瓦隆的迷雾_intext.xlsx
+++ b/xlsx/_wiki_阿瓦隆的迷雾_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>阿瓦隆的迷雾</t>
   </si>
@@ -426,12 +426,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/%D0%9C%D1%8A%D0%B3%D0%BB%D0%B8%D1%82%D0%B5_%D0%BD%D0%B0_%D0%90%D0%B2%D0%B0%D0%BB%D0%BE%D0%BD</t>
@@ -876,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2951,29 +2945,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_阿瓦隆的迷雾_intext.xlsx
+++ b/xlsx/_wiki_阿瓦隆的迷雾_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>阿瓦隆的迷雾</t>
   </si>
@@ -23,151 +23,151 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%93%A6%E9%9A%86%E7%9A%84%E8%BF%B7%E9%9B%BE</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
     <t>美国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
     <t>语言</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E6%96%87</t>
   </si>
   <si>
     <t>英文</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%E7%8E%8B%E5%82%B3%E8%AA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9E%E7%91%9F%E7%8E%8B%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
     <t>亚瑟王传说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
   </si>
   <si>
     <t>国际标准书号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%B9%BB%E5%B0%8F%E8%AF%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%87%E5%B9%BB%E5%B0%8F%E8%AF%B4</t>
   </si>
   <si>
     <t>奇幻小说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%8B%92%E8%8F%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%91%A9%E6%A0%B9%E5%8B%92%E8%8F%B2</t>
   </si>
   <si>
     <t>摩根勒菲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
   </si>
   <si>
     <t>中世纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%8E%E6%B4%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E7%BE%8E%E6%B4%9B</t>
   </si>
   <si>
     <t>卡美洛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E5%A6%AE%E8%96%87%E5%84%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A1%82%E5%A6%AE%E8%96%87%E5%84%BF</t>
   </si>
   <si>
     <t>桂妮薇儿</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%AB%98%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%91%A9%E9%AB%98%E6%96%AF</t>
   </si>
   <si>
     <t>摩高斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E4%B8%AD%E5%A6%96%E5%A5%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B9%96%E4%B8%AD%E5%A6%96%E5%A5%B3</t>
   </si>
   <si>
     <t>湖中妖女</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%91%9F%E7%8E%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9A%E7%91%9F%E7%8E%8B</t>
   </si>
   <si>
     <t>亚瑟王</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E7%91%9F%E7%8E%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%A4%E7%91%9F%E7%8E%8B</t>
   </si>
   <si>
     <t>尤瑟王</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%A0%BC%E8%B5%96%E5%9B%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E6%A0%BC%E8%B5%96%E5%9B%A0</t>
   </si>
   <si>
     <t>伊格赖因</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B2%83%E5%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BA%B7%E6%B2%83%E5%B0%94</t>
   </si>
   <si>
     <t>康沃尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%E6%B4%9B%E7%89%B9%E7%88%B5%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%B0%E6%96%AF%E6%B4%9B%E7%89%B9%E7%88%B5%E5%A3%AB</t>
   </si>
   <si>
     <t>兰斯洛特爵士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB</t>
   </si>
   <si>
     <t>圆桌骑士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E9%9B%B7%E5%BE%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8E%AB%E5%BE%B7%E9%9B%B7%E5%BE%B7</t>
   </si>
   <si>
     <t>莫德雷德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%96%87_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AB%98%E6%96%87_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
   </si>
   <si>
     <t>高文 (亚瑟王传说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%93%88%E5%BE%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%A0%E6%8B%89%E5%93%88%E5%BE%B7</t>
   </si>
   <si>
     <t>加拉哈德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%B4%A2%E5%BE%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E7%B4%A2%E5%BE%B7</t>
   </si>
   <si>
     <t>伊索德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%9E%97_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%85%E6%9E%97_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
   </si>
   <si>
     <t>梅林 (亚瑟王传说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E6%81%A9_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E8%8E%B1%E6%81%A9_(%E4%BA%9A%E7%91%9F%E7%8E%8B%E4%BC%A0%E8%AF%B4)</t>
   </si>
   <si>
     <t>伊莱恩 (亚瑟王传说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
   </si>
   <si>
     <t>圆桌骑士团</t>
@@ -179,253 +179,244 @@
     <t>en-Sir Kay</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%E6%B4%9B%E7%89%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%B0%E6%96%AF%E6%B4%9B%E7%89%B9</t>
   </si>
   <si>
     <t>兰斯洛特</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AC%A7%E6%96%87</t>
   </si>
   <si>
     <t>欧文</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%BE%B7%E7%BB%B4%E5%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B4%9D%E5%BE%B7%E7%BB%B4%E5%B0%94</t>
   </si>
   <si>
     <t>贝德维尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E8%A5%BF%E7%93%A6%E9%87%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8F%80%E8%A5%BF%E7%93%A6%E9%87%8C</t>
   </si>
   <si>
     <t>珀西瓦里</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E6%96%AF%E5%9D%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B4%94%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>崔斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E9%AA%91%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%BF%E9%AA%91%E5%A3%AB</t>
   </si>
   <si>
     <t>绿骑士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%8B%89%E8%96%87%E4%B8%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%AB%E6%8B%89%E8%96%87%E4%B8%9D</t>
   </si>
   <si>
     <t>赫拉薇丝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%80%85%E4%B9%8B%E5%8A%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E8%80%85%E4%B9%8B%E5%8A%8D</t>
   </si>
   <si>
     <t>王者之剑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%9D%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%A3%E6%9D%AF</t>
   </si>
   <si>
     <t>圣杯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E6%A1%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%86%E6%A1%8C</t>
   </si>
   <si>
     <t>圆桌</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%93%A6%E9%9A%86</t>
   </si>
   <si>
     <t>阿瓦隆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E9%BE%8D_(%E5%A8%81%E7%88%BE%E6%96%AF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B4%85%E9%BE%8D_(%E5%A8%81%E7%88%BE%E6%96%AF)</t>
   </si>
   <si>
     <t>红龙 (威尔士)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%BE%8D_(%E6%92%92%E5%85%8B%E9%81%9C)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E9%BE%8D_(%E6%92%92%E5%85%8B%E9%81%9C)</t>
   </si>
   <si>
     <t>白龙 (撒克逊)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A0%8F%E4%B9%8B%E6%88%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%91%E6%A0%8F%E4%B9%8B%E6%88%98</t>
   </si>
   <si>
     <t>剑栏之战</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AF%94%E8%AF%BA%E5%90%89%E6%98%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E6%AF%94%E8%AF%BA%E5%90%89%E6%98%82</t>
   </si>
   <si>
     <t>马比诺吉昂</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%A1%94%C2%B7%E6%A2%85%E6%9E%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%B4%E5%A1%94%C2%B7%E6%A2%85%E6%9E%97</t>
   </si>
   <si>
     <t>维塔·梅林</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%E4%B9%8B%E6%AD%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9E%E7%91%9F%E4%B9%8B%E6%AD%BB</t>
   </si>
   <si>
     <t>亚瑟之死</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E4%B8%8A%E7%9A%84%E4%B8%8D%E5%88%97%E9%A2%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%86%E5%8F%B2%E4%B8%8A%E7%9A%84%E4%B8%8D%E5%88%97%E9%A2%A0</t>
   </si>
   <si>
     <t>历史上的不列颠</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%96%87%E7%88%B5%E5%A3%AB%E4%B8%8E%E7%BB%BF%E9%AA%91%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AB%98%E6%96%87%E7%88%B5%E5%A3%AB%E4%B8%8E%E7%BB%BF%E9%AA%91%E5%A3%AB</t>
   </si>
   <si>
     <t>高文爵士与绿骑士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E4%B8%AD%E5%89%91_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9F%B3%E4%B8%AD%E5%89%91_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>石中剑 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%81%86%E4%B9%8B%E7%8E%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%B8%E6%81%86%E4%B9%8B%E7%8E%8B</t>
   </si>
   <si>
     <t>永恒之王</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%9E%97%E5%92%8C%E9%87%8E%E5%85%BD%E4%B9%8B%E4%B9%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%85%E6%9E%97%E5%92%8C%E9%87%8E%E5%85%BD%E4%B9%8B%E4%B9%A6</t>
   </si>
   <si>
     <t>梅林和野兽之书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%9E%97%E8%88%87%E9%BE%8D%E4%B9%8B%E6%88%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%85%E6%9E%97%E8%88%87%E9%BE%8D%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
     <t>梅林与龙之战</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%B3%95%E5%B8%AB%E7%9A%84%E5%AD%B8%E5%BE%92_(2010%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AD%94%E6%B3%95%E5%B8%AB%E7%9A%84%E5%AD%B8%E5%BE%92_(2010%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
     <t>魔法师的学徒 (2010年电影)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%9E%97%E4%BC%A0%E5%A5%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%85%E6%9E%97%E4%BC%A0%E5%A5%87</t>
   </si>
   <si>
     <t>梅林传奇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%8E%E9%A3%8E%E4%BA%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%A3%E5%9F%8E%E9%A3%8E%E4%BA%91</t>
   </si>
   <si>
     <t>圣城风云</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%89%91%E4%BC%A0%E5%A5%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A5%9E%E5%89%91%E4%BC%A0%E5%A5%87</t>
   </si>
   <si>
     <t>神剑传奇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB%E7%89%A9%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%86%E6%A1%8C%E9%AA%91%E5%A3%AB%E7%89%A9%E8%AF%AD</t>
   </si>
   <si>
     <t>圆桌骑士物语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Code_Geass%E5%8F%8D%E5%8F%9B%E7%9A%84%E9%AD%AF%E8%B7%AF%E4%BF%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/Code_Geass%E5%8F%8D%E5%8F%9B%E7%9A%84%E9%AD%AF%E8%B7%AF%E4%BF%AE</t>
   </si>
   <si>
     <t>Code Geass反叛的鲁路修</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Fate/stay_night</t>
+    <t>https://zh.wikipedia.org/zh-cn/Fate/stay_night</t>
   </si>
   <si>
     <t>Fate/stay night</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Fate/Zero</t>
+    <t>https://zh.wikipedia.org/zh-cn/Fate/Zero</t>
   </si>
   <si>
     <t>Fate/Zero</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Fate/Prototype</t>
+    <t>https://zh.wikipedia.org/zh-cn/Fate/Prototype</t>
   </si>
   <si>
     <t>Fate/Prototype</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E5%8D%81%E4%B8%80%E4%BA%BAGO</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%96%83%E9%9B%BB%E5%8D%81%E4%B8%80%E4%BA%BAGO</t>
   </si>
   <si>
     <t>闪电十一人GO</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%8E%E6%B4%9B%E8%B7%B3%E6%A3%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E7%BE%8E%E6%B4%9B%E8%B7%B3%E6%A3%8B</t>
   </si>
   <si>
     <t>卡美洛跳棋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%91%9F%E7%8E%8B%E7%9A%84%E6%9A%97%E9%BB%91%E6%97%B6%E4%BB%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9A%E7%91%9F%E7%8E%8B%E7%9A%84%E6%9A%97%E9%BB%91%E6%97%B6%E4%BB%A3</t>
   </si>
   <si>
     <t>亚瑟王的暗黑时代</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E6%95%A3%E6%80%A7%E7%99%BE%E8%90%AC%E4%BA%9E%E7%91%9F%E7%8E%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%93%B4%E6%95%A3%E6%80%A7%E7%99%BE%E8%90%AC%E4%BA%9E%E7%91%9F%E7%8E%8B</t>
   </si>
   <si>
     <t>扩散性百万亚瑟王</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Fate/hollow_ataraxia</t>
+    <t>https://zh.wikipedia.org/zh-cn/Fate/hollow_ataraxia</t>
   </si>
   <si>
     <t>Fate/hollow ataraxia</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
     <t>权威控制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>虚拟国际规范文档</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E7%9A%84%E8%BF%B7%E9%9B%BE</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/%D0%9C%D1%8A%D0%B3%D0%BB%D0%B8%D1%82%D0%B5_%D0%BD%D0%B0_%D0%90%D0%B2%D0%B0%D0%BB%D0%BE%D0%BD</t>
@@ -870,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,7 +2542,7 @@
         <v>135</v>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2568,10 +2559,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2591,10 +2582,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2614,10 +2605,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2637,10 +2628,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2660,10 +2651,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2683,10 +2674,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2706,10 +2697,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2729,10 +2720,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2752,10 +2743,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -2775,10 +2766,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2798,10 +2789,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2821,10 +2812,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2844,10 +2835,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -2867,10 +2858,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -2890,58 +2881,12 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
-      </c>
-      <c r="G90" t="n">
         <v>1</v>
       </c>
     </row>
